--- a/Team-Data/2009-10/4-3-2009-10.xlsx
+++ b/Team-Data/2009-10/4-3-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -681,10 +748,10 @@
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J2" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K2" t="n">
         <v>0.466</v>
@@ -696,34 +763,34 @@
         <v>17.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O2" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P2" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R2" t="n">
         <v>11.8</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
@@ -732,19 +799,19 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="AC2" t="n">
         <v>4.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -759,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -774,49 +841,49 @@
         <v>14</v>
       </c>
       <c r="AN2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR2" t="n">
         <v>9</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AS2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT2" t="n">
         <v>20</v>
       </c>
-      <c r="AP2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>16</v>
-      </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>16</v>
       </c>
       <c r="AY2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>7</v>
       </c>
       <c r="BA2" t="n">
         <v>28</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -848,100 +915,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
         <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>0.616</v>
+        <v>0.627</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
         <v>76.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O3" t="n">
         <v>18.8</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
         <v>29.9</v>
       </c>
       <c r="T3" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="U3" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,13 +1017,13 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -965,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -980,13 +1047,13 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
@@ -1001,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -1045,31 +1112,31 @@
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M4" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O4" t="n">
         <v>19.9</v>
       </c>
       <c r="P4" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
         <v>10.5</v>
@@ -1078,13 +1145,13 @@
         <v>30.5</v>
       </c>
       <c r="T4" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W4" t="n">
         <v>7.8</v>
@@ -1096,19 +1163,19 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1120,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1135,25 +1202,25 @@
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
       </c>
       <c r="AP4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR4" t="n">
         <v>20</v>
       </c>
-      <c r="AR4" t="n">
-        <v>22</v>
-      </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
@@ -1168,22 +1235,22 @@
         <v>8</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.487</v>
+        <v>0.48</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1236,31 +1303,31 @@
         <v>0.449</v>
       </c>
       <c r="L5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M5" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O5" t="n">
         <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
         <v>0.758</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S5" t="n">
         <v>32.8</v>
       </c>
       <c r="T5" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U5" t="n">
         <v>20.6</v>
@@ -1272,28 +1339,28 @@
         <v>6.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
         <v>5.4</v>
       </c>
       <c r="Z5" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AA5" t="n">
         <v>20.1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20</v>
       </c>
       <c r="AB5" t="n">
         <v>97.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
@@ -1302,13 +1369,13 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
@@ -1329,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>12</v>
@@ -1338,10 +1405,10 @@
         <v>3</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>16</v>
@@ -1350,16 +1417,16 @@
         <v>23</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
         <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.789</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.489</v>
+        <v>0.486</v>
       </c>
       <c r="L6" t="n">
         <v>7.4</v>
@@ -1427,10 +1494,10 @@
         <v>0.384</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
         <v>0.721</v>
@@ -1442,13 +1509,13 @@
         <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V6" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
         <v>6.9</v>
@@ -1457,22 +1524,22 @@
         <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.3</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1505,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>7</v>
@@ -1520,16 +1587,16 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
         <v>10</v>
@@ -1541,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -1591,13 +1658,13 @@
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L7" t="n">
         <v>6.7</v>
@@ -1609,13 +1676,13 @@
         <v>0.369</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P7" t="n">
         <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.3</v>
@@ -1624,37 +1691,37 @@
         <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U7" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
         <v>7.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1669,22 +1736,22 @@
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
       </c>
       <c r="AK7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL7" t="n">
         <v>11</v>
       </c>
-      <c r="AL7" t="n">
-        <v>10</v>
-      </c>
       <c r="AM7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1702,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>4</v>
@@ -1726,10 +1793,10 @@
         <v>23</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1840,7 @@
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
         <v>81.2</v>
@@ -1782,40 +1849,40 @@
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O8" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R8" t="n">
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
         <v>21.1</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W8" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
@@ -1824,31 +1891,31 @@
         <v>5.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA8" t="n">
         <v>23.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.7</v>
+        <v>106.9</v>
       </c>
       <c r="AC8" t="n">
         <v>4.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1857,16 +1924,16 @@
         <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM8" t="n">
         <v>13</v>
       </c>
-      <c r="AM8" t="n">
-        <v>12</v>
-      </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>15</v>
@@ -1902,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -1943,25 +2010,25 @@
         <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>0.293</v>
+        <v>0.307</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J9" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L9" t="n">
         <v>4.4</v>
@@ -1976,28 +2043,28 @@
         <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.727</v>
+        <v>0.724</v>
       </c>
       <c r="R9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S9" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="T9" t="n">
         <v>40.7</v>
       </c>
       <c r="U9" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V9" t="n">
         <v>13.7</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>3.9</v>
@@ -2006,31 +2073,31 @@
         <v>4.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.1</v>
+        <v>-5.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
@@ -2042,10 +2109,10 @@
         <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN9" t="n">
         <v>30</v>
@@ -2057,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
         <v>2</v>
@@ -2069,10 +2136,10 @@
         <v>23</v>
       </c>
       <c r="AU9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW9" t="n">
         <v>18</v>
@@ -2084,10 +2151,10 @@
         <v>16</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="n">
-        <v>0.297</v>
+        <v>0.293</v>
       </c>
       <c r="H10" t="n">
         <v>48.1</v>
@@ -2149,7 +2216,7 @@
         <v>7.5</v>
       </c>
       <c r="M10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N10" t="n">
         <v>0.369</v>
@@ -2161,7 +2228,7 @@
         <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R10" t="n">
         <v>9.300000000000001</v>
@@ -2179,10 +2246,10 @@
         <v>14.9</v>
       </c>
       <c r="W10" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
@@ -2200,16 +2267,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>7</v>
@@ -2230,10 +2297,10 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2251,7 +2318,7 @@
         <v>30</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV10" t="n">
         <v>21</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -2304,13 +2371,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
+        <v>38</v>
+      </c>
+      <c r="F11" t="n">
         <v>37</v>
-      </c>
-      <c r="F11" t="n">
-        <v>36</v>
       </c>
       <c r="G11" t="n">
         <v>0.507</v>
@@ -2325,7 +2392,7 @@
         <v>84.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L11" t="n">
         <v>7.8</v>
@@ -2334,7 +2401,7 @@
         <v>22.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O11" t="n">
         <v>19</v>
@@ -2349,10 +2416,10 @@
         <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T11" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U11" t="n">
         <v>21.5</v>
@@ -2361,28 +2428,28 @@
         <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
         <v>3.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2403,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
@@ -2415,7 +2482,7 @@
         <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2424,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS11" t="n">
         <v>20</v>
@@ -2433,13 +2500,13 @@
         <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2448,16 +2515,16 @@
         <v>30</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="n">
-        <v>0.373</v>
+        <v>0.368</v>
       </c>
       <c r="H12" t="n">
         <v>48.1</v>
       </c>
       <c r="I12" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
@@ -2525,7 +2592,7 @@
         <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R12" t="n">
         <v>9.5</v>
@@ -2540,7 +2607,7 @@
         <v>20.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2555,16 +2622,16 @@
         <v>22.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2582,7 +2649,7 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2594,10 +2661,10 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>14</v>
@@ -2618,13 +2685,13 @@
         <v>17</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>0.365</v>
+        <v>0.36</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J13" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M13" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O13" t="n">
         <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="R13" t="n">
         <v>11.5</v>
@@ -2719,34 +2786,34 @@
         <v>41.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V13" t="n">
         <v>15.6</v>
       </c>
       <c r="W13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y13" t="n">
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2761,7 +2828,7 @@
         <v>28</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>22</v>
@@ -2773,7 +2840,7 @@
         <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN13" t="n">
         <v>27</v>
@@ -2785,10 +2852,10 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS13" t="n">
         <v>21</v>
@@ -2803,22 +2870,22 @@
         <v>28</v>
       </c>
       <c r="AW13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.72</v>
+        <v>0.724</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
@@ -2871,25 +2938,25 @@
         <v>83.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
         <v>19</v>
       </c>
       <c r="N14" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O14" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
         <v>11.7</v>
@@ -2901,13 +2968,13 @@
         <v>44.4</v>
       </c>
       <c r="U14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V14" t="n">
         <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
         <v>4.8</v>
@@ -2919,7 +2986,7 @@
         <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
         <v>102.4</v>
@@ -2928,7 +2995,7 @@
         <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2949,16 +3016,16 @@
         <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
@@ -2976,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>15</v>
@@ -2988,10 +3055,10 @@
         <v>9</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>39</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.527</v>
+        <v>0.52</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="J15" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L15" t="n">
         <v>4.4</v>
@@ -3062,7 +3129,7 @@
         <v>12.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O15" t="n">
         <v>19.4</v>
@@ -3071,58 +3138,58 @@
         <v>26.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R15" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S15" t="n">
         <v>30.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U15" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA15" t="n">
         <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.2</v>
+        <v>102.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
         <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
@@ -3131,16 +3198,16 @@
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
@@ -3149,19 +3216,19 @@
         <v>6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR15" t="n">
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3170,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>28</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -3229,13 +3296,13 @@
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
@@ -3250,10 +3317,10 @@
         <v>17.8</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R16" t="n">
         <v>10.6</v>
@@ -3262,10 +3329,10 @@
         <v>31.3</v>
       </c>
       <c r="T16" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U16" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V16" t="n">
         <v>13.1</v>
@@ -3280,19 +3347,19 @@
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA16" t="n">
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3304,28 +3371,28 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM16" t="n">
         <v>17</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>16</v>
       </c>
       <c r="AN16" t="n">
         <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
         <v>20</v>
@@ -3340,7 +3407,7 @@
         <v>13</v>
       </c>
       <c r="AT16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU16" t="n">
         <v>28</v>
@@ -3349,25 +3416,25 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX16" t="n">
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.553</v>
+        <v>0.547</v>
       </c>
       <c r="H17" t="n">
         <v>48.8</v>
       </c>
       <c r="I17" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J17" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L17" t="n">
         <v>7.8</v>
@@ -3435,16 +3502,16 @@
         <v>20.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
         <v>31.3</v>
       </c>
       <c r="T17" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
@@ -3456,7 +3523,7 @@
         <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>5.1</v>
@@ -3465,25 +3532,25 @@
         <v>22.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
         <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
         <v>1</v>
@@ -3504,7 +3571,7 @@
         <v>5</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>30</v>
@@ -3516,7 +3583,7 @@
         <v>18</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
         <v>12</v>
@@ -3531,13 +3598,13 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -3581,13 +3648,13 @@
         <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" t="n">
-        <v>0.187</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,67 +3663,67 @@
         <v>38.1</v>
       </c>
       <c r="J18" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="K18" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P18" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T18" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U18" t="n">
         <v>19.8</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W18" t="n">
         <v>7.3</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z18" t="n">
         <v>20.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.4</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3683,7 +3750,7 @@
         <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
@@ -3692,19 +3759,19 @@
         <v>25</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU18" t="n">
         <v>24</v>
@@ -3713,13 +3780,13 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>15</v>
@@ -3728,10 +3795,10 @@
         <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -3763,40 +3830,40 @@
         <v>75</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19" t="n">
-        <v>0.147</v>
+        <v>0.133</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="J19" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.429</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M19" t="n">
         <v>14.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
@@ -3805,40 +3872,40 @@
         <v>10.9</v>
       </c>
       <c r="S19" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T19" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U19" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="V19" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>91.8</v>
+        <v>91.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3874,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
@@ -3895,16 +3962,16 @@
         <v>15</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX19" t="n">
         <v>22</v>
       </c>
       <c r="AY19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
         <v>22</v>
@@ -3913,7 +3980,7 @@
         <v>30</v>
       </c>
       <c r="BC19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -3957,13 +4024,13 @@
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3972,19 +4039,19 @@
         <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O20" t="n">
         <v>15.7</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S20" t="n">
         <v>29.9</v>
@@ -3993,31 +4060,31 @@
         <v>40.4</v>
       </c>
       <c r="U20" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
         <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z20" t="n">
         <v>19.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4041,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4062,13 +4129,13 @@
         <v>5</v>
       </c>
       <c r="AR20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
@@ -4083,7 +4150,7 @@
         <v>30</v>
       </c>
       <c r="AY20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
         <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J21" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L21" t="n">
         <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N21" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O21" t="n">
         <v>16.5</v>
@@ -4163,7 +4230,7 @@
         <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R21" t="n">
         <v>10</v>
@@ -4175,7 +4242,7 @@
         <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
         <v>14.1</v>
@@ -4196,13 +4263,13 @@
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4223,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4247,19 +4314,19 @@
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV21" t="n">
         <v>13</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>26</v>
@@ -4268,16 +4335,16 @@
         <v>12</v>
       </c>
       <c r="AZ21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4391,7 @@
         <v>37.1</v>
       </c>
       <c r="J22" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.461</v>
@@ -4336,22 +4403,22 @@
         <v>14.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="O22" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P22" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.802</v>
       </c>
       <c r="R22" t="n">
         <v>11.6</v>
       </c>
       <c r="S22" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T22" t="n">
         <v>43.6</v>
@@ -4363,10 +4430,10 @@
         <v>15</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y22" t="n">
         <v>4.7</v>
@@ -4375,37 +4442,37 @@
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
         <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
         <v>25</v>
@@ -4414,13 +4481,13 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4444,7 +4511,7 @@
         <v>6</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
         <v>14</v>
@@ -4453,13 +4520,13 @@
         <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB22" t="n">
         <v>15</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="n">
         <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
         <v>77.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M23" t="n">
         <v>27.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P23" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q23" t="n">
         <v>0.723</v>
@@ -4539,10 +4606,10 @@
         <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
         <v>6.2</v>
@@ -4551,22 +4618,22 @@
         <v>5.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA23" t="n">
         <v>22.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4581,13 +4648,13 @@
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4614,10 +4681,10 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
         <v>14</v>
@@ -4632,13 +4699,13 @@
         <v>1</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -4685,10 +4752,10 @@
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J24" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K24" t="n">
         <v>0.455</v>
@@ -4700,67 +4767,67 @@
         <v>16.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O24" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P24" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T24" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U24" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
         <v>14.6</v>
       </c>
       <c r="W24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>5.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA24" t="n">
         <v>18.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
         <v>19</v>
@@ -4769,16 +4836,16 @@
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
         <v>27</v>
@@ -4787,19 +4854,19 @@
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>25</v>
       </c>
       <c r="AT24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU24" t="n">
         <v>20</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4808,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="n">
         <v>4</v>
@@ -4823,7 +4890,7 @@
         <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -4855,19 +4922,19 @@
         <v>76</v>
       </c>
       <c r="E25" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.645</v>
+        <v>0.658</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="J25" t="n">
         <v>83</v>
@@ -4882,7 +4949,7 @@
         <v>21.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.41</v>
+        <v>0.412</v>
       </c>
       <c r="O25" t="n">
         <v>19.9</v>
@@ -4891,7 +4958,7 @@
         <v>25.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R25" t="n">
         <v>11.2</v>
@@ -4906,52 +4973,52 @@
         <v>23.5</v>
       </c>
       <c r="V25" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
         <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z25" t="n">
         <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4990,16 +5057,16 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
         <v>16</v>
       </c>
       <c r="BA25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5122,7 @@
         <v>78.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>6</v>
@@ -5064,7 +5131,7 @@
         <v>16.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O26" t="n">
         <v>19.9</v>
@@ -5079,16 +5146,16 @@
         <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T26" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="W26" t="n">
         <v>6.4</v>
@@ -5097,25 +5164,25 @@
         <v>4.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB26" t="n">
         <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>12</v>
@@ -5124,19 +5191,19 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
         <v>26</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM26" t="n">
         <v>20</v>
@@ -5145,7 +5212,7 @@
         <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
@@ -5169,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
@@ -5178,13 +5245,13 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC26" t="n">
         <v>11</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -5231,13 +5298,13 @@
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J27" t="n">
         <v>84</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L27" t="n">
         <v>6</v>
@@ -5246,16 +5313,16 @@
         <v>17.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O27" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.723</v>
+        <v>0.726</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
@@ -5279,7 +5346,7 @@
         <v>4.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z27" t="n">
         <v>22.5</v>
@@ -5294,7 +5361,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5315,10 +5382,10 @@
         <v>6</v>
       </c>
       <c r="AK27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL27" t="n">
         <v>19</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>18</v>
@@ -5327,16 +5394,16 @@
         <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP27" t="n">
         <v>18</v>
       </c>
       <c r="AQ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS27" t="n">
         <v>14</v>
@@ -5348,7 +5415,7 @@
         <v>19</v>
       </c>
       <c r="AV27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5360,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="n">
         <v>29</v>
       </c>
       <c r="G28" t="n">
-        <v>0.608</v>
+        <v>0.613</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
         <v>81.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L28" t="n">
         <v>6.7</v>
@@ -5431,10 +5498,10 @@
         <v>0.363</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q28" t="n">
         <v>0.745</v>
@@ -5449,13 +5516,13 @@
         <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X28" t="n">
         <v>4.8</v>
@@ -5470,16 +5537,16 @@
         <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5488,10 +5555,10 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
@@ -5500,7 +5567,7 @@
         <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>11</v>
@@ -5509,25 +5576,25 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS28" t="n">
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>8</v>
@@ -5536,10 +5603,10 @@
         <v>26</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -5592,25 +5659,25 @@
         <v>0.5</v>
       </c>
       <c r="H29" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="J29" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="L29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N29" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O29" t="n">
         <v>19.9</v>
@@ -5619,22 +5686,22 @@
         <v>26.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R29" t="n">
         <v>9.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U29" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V29" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W29" t="n">
         <v>5.7</v>
@@ -5643,37 +5710,37 @@
         <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA29" t="n">
         <v>21.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>103.9</v>
+        <v>103.5</v>
       </c>
       <c r="AC29" t="n">
         <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF29" t="n">
         <v>17</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>18</v>
       </c>
       <c r="AG29" t="n">
         <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ29" t="n">
         <v>21</v>
@@ -5691,7 +5758,7 @@
         <v>3</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>8</v>
@@ -5703,31 +5770,31 @@
         <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW29" t="n">
         <v>30</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>10</v>
       </c>
       <c r="AZ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n">
         <v>50</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.658</v>
+        <v>0.649</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,10 +5847,10 @@
         <v>39.3</v>
       </c>
       <c r="J30" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="L30" t="n">
         <v>5.2</v>
@@ -5792,22 +5859,22 @@
         <v>14.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P30" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R30" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S30" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T30" t="n">
         <v>42</v>
@@ -5819,7 +5886,7 @@
         <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>5</v>
@@ -5837,22 +5904,22 @@
         <v>104</v>
       </c>
       <c r="AC30" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>4</v>
       </c>
       <c r="AF30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5861,7 +5928,7 @@
         <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5885,7 +5952,7 @@
         <v>21</v>
       </c>
       <c r="AS30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5900,13 +5967,13 @@
         <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31" t="n">
         <v>53</v>
       </c>
       <c r="G31" t="n">
-        <v>0.284</v>
+        <v>0.293</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5965,7 +6032,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
         <v>5.2</v>
@@ -5983,13 +6050,13 @@
         <v>23.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T31" t="n">
         <v>41.7</v>
@@ -5998,7 +6065,7 @@
         <v>18.6</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
         <v>6.1</v>
@@ -6007,31 +6074,31 @@
         <v>5.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
         <v>20.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF31" t="n">
         <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
         <v>11</v>
@@ -6043,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>24</v>
@@ -6052,25 +6119,25 @@
         <v>23</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR31" t="n">
         <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>30</v>
@@ -6085,7 +6152,7 @@
         <v>11</v>
       </c>
       <c r="AY31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-3-2009-10</t>
+          <t>2010-04-03</t>
         </is>
       </c>
     </row>
